--- a/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF8307-728B-4C02-95BE-1F0165CB036E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F86D9-D8CA-471B-9198-08AABD54B05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -196,6 +196,45 @@
     <rPh sb="0" eb="2">
       <t>ショウゴウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>achievement_message</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>readonlyで出力する</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2509,6 +2548,127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>131802</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6422D46-E342-43CB-94FC-904939B4E8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="444500" y="7919357"/>
+          <a:ext cx="9062357" cy="5547445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「１　ドロワーメニュー」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドロワーメニューが表示される</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「２　メッセージ」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージを消去する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「３　キャラクター」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>吹き出しメッセージを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2835,8 +2995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6042,34 +6202,54 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
-      <c r="S79" s="14"/>
+      <c r="S79" s="14">
+        <v>0</v>
+      </c>
       <c r="T79" s="17"/>
-      <c r="U79" s="14"/>
+      <c r="U79" s="14">
+        <v>50</v>
+      </c>
       <c r="V79" s="17"/>
-      <c r="W79" s="14"/>
+      <c r="W79" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="X79" s="15"/>
       <c r="Y79" s="15"/>
       <c r="Z79" s="17"/>
-      <c r="AA79" s="14"/>
+      <c r="AA79" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
+      <c r="AD79" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
@@ -6084,16 +6264,24 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>3</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F86D9-D8CA-471B-9198-08AABD54B05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2894B8BE-5EB8-476E-BA85-14F596F2F6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2665,6 +2665,97 @@
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「４　称号リスト」スクロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面をスクロールできる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107703</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176976</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F651ECD-3B00-43AB-811D-975EE25D1058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2139703" y="3731078"/>
+          <a:ext cx="577273" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2995,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S80" sqref="S80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3105,7 +3196,7 @@
       </c>
       <c r="AG2" s="39"/>
       <c r="AH2" s="40">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2894B8BE-5EB8-476E-BA85-14F596F2F6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37957161-BC22-44A3-814C-76A24B637565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1424,16 +1435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>202239</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>98186</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11739</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>120597</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>37354</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>184097</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1448,8 +1459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5790239" y="3788657"/>
-          <a:ext cx="3220358" cy="1104579"/>
+          <a:off x="6361739" y="1803614"/>
+          <a:ext cx="3220358" cy="1589100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,6 +1487,21 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（暫定）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
@@ -2200,16 +2226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>202239</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>120597</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247596</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>120597</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>59764</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>165954</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2224,8 +2250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5790239" y="4782244"/>
-          <a:ext cx="3220358" cy="1104579"/>
+          <a:off x="6343596" y="3241168"/>
+          <a:ext cx="3220358" cy="1082167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2268,16 +2294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>90181</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128067</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>253467</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>8539</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>171825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2292,8 +2318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8980181" y="4789714"/>
-          <a:ext cx="3220358" cy="1104579"/>
+          <a:off x="6349467" y="4110425"/>
+          <a:ext cx="3220358" cy="1082167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2336,16 +2362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247063</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135537</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>189965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>141941</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>74704</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>96584</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2360,8 +2386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5835063" y="5962596"/>
-          <a:ext cx="5228878" cy="1104579"/>
+          <a:off x="6297706" y="5142965"/>
+          <a:ext cx="5228878" cy="1082167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3086,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S80" sqref="S80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN24" sqref="AN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_称号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37957161-BC22-44A3-814C-76A24B637565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C238A908-4F3D-434A-8A2F-1EAB3C1F39AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -296,6 +296,20 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -621,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,15 +716,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,9 +736,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,8 +745,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1489,14 +1526,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>（暫定）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -1504,7 +1541,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2280,7 +2317,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2348,7 +2385,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2416,7 +2453,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2577,15 +2614,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>181429</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>131802</xdr:rowOff>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2600,7 +2637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="444500" y="7919357"/>
+          <a:off x="435429" y="7774214"/>
           <a:ext cx="9062357" cy="5547445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2630,84 +2667,84 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「１　ドロワーメニュー」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ドロワーメニューが表示される</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「２　メッセージ」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>メッセージを消去する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「３　キャラクター」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>吹き出しメッセージを表示する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1"/>
             <a:t>「４　称号リスト」スクロール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>画面をスクロールできる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3112,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN24" sqref="AN24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:AN110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3134,11 +3171,11 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="28" t="s">
         <v>23</v>
       </c>
@@ -3150,10 +3187,10 @@
       <c r="T1" s="28"/>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3163,19 +3200,19 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -3188,48 +3225,48 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="35">
         <v>45083</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="36">
         <v>45084</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -3242,38 +3279,38 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3322,7 +3359,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -4746,7 +4783,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -6170,7 +6207,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -6256,58 +6293,58 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="48"/>
+      <c r="D78" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="51"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="52"/>
+      <c r="U78" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="52"/>
+      <c r="W78" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="52"/>
+      <c r="AD78" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>
       <c r="AJ78" s="15"/>
